--- a/biology/Botanique/Hippobroma_longiflora/Hippobroma_longiflora.xlsx
+++ b/biology/Botanique/Hippobroma_longiflora/Hippobroma_longiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lastron blanc ou Étoile de Bethléem (Hippobroma longiflora) est une plante des régions tropicales et subtropicales appartenant à la famille des Campanulacées et au genre Hippobroma. Cette plante est aussi appelée Mort aux vaches ou Mort aux cabris.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Laurentia longiflora (L.) C. Presl
 Isotoma longiflora (L.) Peterm.</t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire des Grandes Antilles, dispersée dans toutes les régions tropicales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire des Grandes Antilles, dispersée dans toutes les régions tropicales.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivée à des fins ornementales.
 Plante toxique, contenant des alcaloïdes: piperidine et tetrahydropyridine.
@@ -605,7 +623,9 @@
           <t>Confusions à éviter</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Une autre plante porte aussi le nom vernaculaire « Étoile de Bethléem » : Ornithogalum arabicum.
 La Dame d'onze heures (Ornithogalum umbellatum) parfois confondue avec l'espèce précédente, et pourtant toxique, est référencée dans les "Fleurs de Bach".</t>
